--- a/config_3.16/act_ty_zp1_config.xlsx
+++ b/config_3.16/act_ty_zp1_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" tabRatio="779" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" tabRatio="779" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t>line</t>
   </si>
@@ -44,9 +44,6 @@
     <t>gift|对应的工作簿名字</t>
   </si>
   <si>
-    <t>actp_no_cjj_gej_exchange</t>
-  </si>
-  <si>
     <t>prop_qdlb_cjq</t>
   </si>
   <si>
@@ -54,15 +51,6 @@
   </si>
   <si>
     <t>gift1</t>
-  </si>
-  <si>
-    <t>actp_cjj_gej_exchange</t>
-  </si>
-  <si>
-    <t>config2</t>
-  </si>
-  <si>
-    <t>gift2</t>
   </si>
   <si>
     <t>sta_t|活动开始时间戳</t>
@@ -242,40 +230,19 @@
     <t>498元礼包</t>
   </si>
   <si>
-    <t>"ty_icon_jb_498y","act_ty_zp1_cjq","3dby_btn_jb",</t>
-  </si>
-  <si>
-    <t>"5180万","抽奖券*50","双倍奖励*15",</t>
-  </si>
-  <si>
-    <t>"","","双倍奖励卡，请在3D捕鱼中使用"</t>
-  </si>
-  <si>
     <t>198元礼包</t>
   </si>
   <si>
-    <t>"2020万","抽奖券*30","双倍奖励*10",</t>
-  </si>
-  <si>
     <t>98元礼包</t>
   </si>
   <si>
-    <t>"990万","抽奖券*20","双倍奖励*5",</t>
-  </si>
-  <si>
     <t>48元礼包</t>
   </si>
   <si>
     <t>20元礼包</t>
   </si>
   <si>
-    <t>"200万","抽奖券*4","双倍奖励*2",</t>
-  </si>
-  <si>
     <t>6元礼包</t>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","双倍奖励*1",</t>
   </si>
   <si>
     <t>"ty_icon_jb_498y","act_ty_zp1_cjq","zpg_icon_yg",</t>
@@ -306,14 +273,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"483万","抽奖券*10","双倍奖励*3",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sort</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>xg_desc</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -337,7 +296,7 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -355,7 +314,7 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
+      <t>16</t>
     </r>
     <r>
       <rPr>
@@ -373,7 +332,7 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>8:00-1</t>
+      <t>8:00-3</t>
     </r>
     <r>
       <rPr>
@@ -391,7 +350,7 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>11</t>
+      <t>22</t>
     </r>
     <r>
       <rPr>
@@ -470,7 +429,348 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>每个礼包每日限购1次</t>
+    <t>礼包不限购</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000金币</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0福利券</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000金币</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0元话费</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_18y</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+  </si>
+  <si>
+    <r>
+      <t>华为mate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort|礼包是否需要排序
+1是 0否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hf10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5080万金币","抽奖券*50","桃花*800",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","抽奖券*30","桃花*300",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万金币","抽奖券*15","桃花*150",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"485万金币","抽奖券*8","桃花*80",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币","抽奖券*4","桃花*30",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","抽奖券*1","桃花*20",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","act_ty_zp1_cjq","act_ty_by_drop_7",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ty_icon_jb_198y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","act_ty_zp1_cjq","act_ty_by_drop_7",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","act_ty_zp1_cjq","act_ty_by_drop_7",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y","act_ty_zp1_cjq","act_ty_by_drop_7",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y","act_ty_zp1_cjq","act_ty_by_drop_7",</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y","act_ty_zp1_cjq","act_ty_by_drop_7",</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +778,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +815,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -537,7 +859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -590,22 +912,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -884,80 +1239,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="9" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14">
+        <v>97</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10">
-        <v>69</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="10">
-        <v>69</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="15"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -970,7 +1313,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -978,50 +1321,52 @@
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="70.5" customWidth="1"/>
+    <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>1609804800</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1610380799</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>69</v>
+      <c r="B2" s="16">
+        <v>1615852800</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1616428799</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1034,7 +1379,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1049,22 +1394,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -1072,35 +1417,34 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="F2" s="7">
-        <v>11900</v>
-      </c>
+      <c r="B2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>12000</v>
-      </c>
-      <c r="F3" s="7">
-        <v>11895</v>
+      <c r="B3" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="20">
+        <v>12005</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -1108,80 +1452,80 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7">
-        <v>11896</v>
+      <c r="B4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="20">
+        <v>12006</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>20000</v>
-      </c>
-      <c r="F5" s="7">
-        <v>11897</v>
+      <c r="B5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="20">
+        <v>12007</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7">
-        <v>11898</v>
+      <c r="B6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="20">
+        <v>12008</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>50000</v>
-      </c>
-      <c r="F7" s="7">
-        <v>11899</v>
+      <c r="B7" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="20">
+        <v>12009</v>
       </c>
     </row>
   </sheetData>
@@ -1198,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1217,206 +1561,194 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
-        <v>10413</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="27">
+        <v>10497</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="26">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="E2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0</v>
+      </c>
+      <c r="H2" s="26">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
-        <v>10414</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="27">
+        <v>10498</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="26">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E3" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
-        <v>10415</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="27">
+        <v>10499</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="26">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E4" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
+      <c r="H4" s="26">
+        <v>0</v>
+      </c>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>10416</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="27">
+        <v>10500</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="26">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0</v>
+      </c>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
-        <v>10417</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="27">
+        <v>10501</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="26">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E6" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0</v>
+      </c>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
-        <v>10418</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="27">
+        <v>10502</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="26">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E7" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0</v>
+      </c>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1438,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1454,22 +1786,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -1478,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="6"/>
       <c r="F2" s="7">
@@ -1493,13 +1825,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>12000</v>
@@ -1514,13 +1846,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -1534,13 +1866,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>20000</v>
@@ -1554,13 +1886,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -1574,13 +1906,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>50000</v>
@@ -1618,31 +1950,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1653,16 +1985,16 @@
         <v>10419</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1671,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1682,16 +2014,16 @@
         <v>10420</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1700,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1711,16 +2043,16 @@
         <v>10421</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1729,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1740,16 +2072,16 @@
         <v>10422</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1758,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1769,16 +2101,16 @@
         <v>10423</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1787,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1798,16 +2130,16 @@
         <v>10424</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1816,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/config_3.16/act_ty_zp1_config.xlsx
+++ b/config_3.16/act_ty_zp1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" tabRatio="779" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" tabRatio="779" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -630,10 +630,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_hf10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"5080万金币","抽奖券*50","桃花*800",</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -658,119 +654,27 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_jb_498y","act_ty_zp1_cjq","act_ty_by_drop_7",</t>
+    <t>"ty_icon_jb_98y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_6y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty_icon_jb_198y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","act_ty_zp1_cjq","act_ty_by_drop_7",</t>
-    </r>
+    <t>"ty_icon_jb_498y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_jb_98y","act_ty_zp1_cjq","act_ty_by_drop_7",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"ty_icon_jb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y","act_ty_zp1_cjq","act_ty_by_drop_7",</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"ty_icon_jb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y","act_ty_zp1_cjq","act_ty_by_drop_7",</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"ty_icon_jb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y","act_ty_zp1_cjq","act_ty_by_drop_7",</t>
-    </r>
+    <t>activity_icon_gift185_syhf</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1378,14 +1282,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="4" width="27.125" customWidth="1"/>
     <col min="5" max="6" width="15.25" customWidth="1"/>
@@ -1513,7 +1417,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>70</v>
@@ -1542,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1552,7 +1456,7 @@
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="50.5" customWidth="1"/>
+    <col min="5" max="5" width="78.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.375" customWidth="1"/>
     <col min="7" max="7" width="30.875" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
@@ -1602,10 +1506,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" s="26">
         <v>0</v>
@@ -1613,7 +1517,7 @@
       <c r="H2" s="26">
         <v>1</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -1629,10 +1533,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="26">
         <v>0</v>
@@ -1640,7 +1544,7 @@
       <c r="H3" s="26">
         <v>0</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
@@ -1656,10 +1560,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -1667,7 +1571,7 @@
       <c r="H4" s="26">
         <v>0</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -1683,10 +1587,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -1694,7 +1598,7 @@
       <c r="H5" s="26">
         <v>0</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -1710,10 +1614,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="26">
         <v>0</v>
@@ -1721,7 +1625,7 @@
       <c r="H6" s="26">
         <v>0</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -1737,10 +1641,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="26">
         <v>0</v>
@@ -1748,7 +1652,7 @@
       <c r="H7" s="26">
         <v>0</v>
       </c>
-      <c r="I7" s="26"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1762,7 +1666,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_3.16/act_ty_zp1_config.xlsx
+++ b/config_3.16/act_ty_zp1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" tabRatio="779" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -1145,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1187,7 +1187,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="14">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>7</v>
@@ -1282,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
